--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Avance Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Avance Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -627,7 +627,7 @@
         <v>48.03</v>
       </c>
       <c r="P2">
-        <v>15.75076923076923</v>
+        <v>15.75</v>
       </c>
       <c r="Q2">
         <v>12.59</v>
@@ -648,7 +648,7 @@
         <v>199.2</v>
       </c>
       <c r="W2">
-        <v>5.914545454545455</v>
+        <v>5.91</v>
       </c>
       <c r="X2">
         <v>19.23</v>
@@ -657,7 +657,7 @@
         <v>42.23</v>
       </c>
       <c r="Z2">
-        <v>15.6625</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -707,7 +707,7 @@
         <v>238.9</v>
       </c>
       <c r="P3">
-        <v>15.75076923076923</v>
+        <v>15.75</v>
       </c>
       <c r="Q3">
         <v>18.08</v>
@@ -737,7 +737,7 @@
         <v>116.24</v>
       </c>
       <c r="Z3">
-        <v>15.6625</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -781,7 +781,7 @@
         <v>105.39</v>
       </c>
       <c r="N4">
-        <v>112.955</v>
+        <v>112.96</v>
       </c>
       <c r="O4">
         <v>285.66</v>
@@ -808,7 +808,7 @@
         <v>505.72</v>
       </c>
       <c r="W4">
-        <v>5.914545454545455</v>
+        <v>5.91</v>
       </c>
       <c r="X4">
         <v>19.23</v>
@@ -861,7 +861,7 @@
         <v>166.83</v>
       </c>
       <c r="N5">
-        <v>112.955</v>
+        <v>112.96</v>
       </c>
       <c r="O5">
         <v>450.42</v>
@@ -941,7 +941,7 @@
         <v>176.37</v>
       </c>
       <c r="N6">
-        <v>112.955</v>
+        <v>112.96</v>
       </c>
       <c r="O6">
         <v>429.31</v>
@@ -1000,13 +1000,13 @@
         <v>387.52</v>
       </c>
       <c r="G7">
-        <v>82.78375000000001</v>
+        <v>82.78</v>
       </c>
       <c r="H7">
         <v>72.15000000000001</v>
       </c>
       <c r="I7">
-        <v>11.22461538461539</v>
+        <v>11.22</v>
       </c>
       <c r="J7">
         <v>0.17</v>
@@ -1021,7 +1021,7 @@
         <v>196.79</v>
       </c>
       <c r="N7">
-        <v>112.955</v>
+        <v>112.96</v>
       </c>
       <c r="O7">
         <v>427.7</v>
@@ -1057,7 +1057,7 @@
         <v>157.89</v>
       </c>
       <c r="Z7">
-        <v>15.6625</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1080,13 +1080,13 @@
         <v>386.42</v>
       </c>
       <c r="G8">
-        <v>82.78375000000001</v>
+        <v>82.78</v>
       </c>
       <c r="H8">
         <v>57.47</v>
       </c>
       <c r="I8">
-        <v>11.22461538461539</v>
+        <v>11.22</v>
       </c>
       <c r="J8">
         <v>0.17</v>
@@ -1101,7 +1101,7 @@
         <v>223.15</v>
       </c>
       <c r="N8">
-        <v>112.955</v>
+        <v>112.96</v>
       </c>
       <c r="O8">
         <v>413.57</v>
@@ -1160,7 +1160,7 @@
         <v>386.63</v>
       </c>
       <c r="G9">
-        <v>82.78375000000001</v>
+        <v>82.78</v>
       </c>
       <c r="H9">
         <v>60.19</v>
@@ -1169,7 +1169,7 @@
         <v>1.53</v>
       </c>
       <c r="J9">
-        <v>0.3092307692307693</v>
+        <v>0.31</v>
       </c>
       <c r="K9">
         <v>61.73</v>
@@ -1249,7 +1249,7 @@
         <v>0.24</v>
       </c>
       <c r="J10">
-        <v>0.3092307692307693</v>
+        <v>0.31</v>
       </c>
       <c r="K10">
         <v>211.73</v>
@@ -1480,7 +1480,7 @@
         <v>269.66</v>
       </c>
       <c r="G13">
-        <v>82.78375000000001</v>
+        <v>82.78</v>
       </c>
       <c r="H13">
         <v>30.2</v>
@@ -1510,10 +1510,10 @@
         <v>0.79</v>
       </c>
       <c r="Q13">
-        <v>16.58461538461538</v>
+        <v>16.58</v>
       </c>
       <c r="R13">
-        <v>28.61999999999999</v>
+        <v>28.62</v>
       </c>
       <c r="S13">
         <v>0.26</v>
@@ -1560,7 +1560,7 @@
         <v>370.86</v>
       </c>
       <c r="G14">
-        <v>82.78375000000001</v>
+        <v>82.78</v>
       </c>
       <c r="H14">
         <v>55.69</v>
@@ -1608,13 +1608,13 @@
         <v>426.97</v>
       </c>
       <c r="W14">
-        <v>5.914545454545455</v>
+        <v>5.91</v>
       </c>
       <c r="X14">
         <v>19.23</v>
       </c>
       <c r="Y14">
-        <v>165.5014285714286</v>
+        <v>165.5</v>
       </c>
       <c r="Z14">
         <v>39.54</v>
@@ -1640,7 +1640,7 @@
         <v>371.27</v>
       </c>
       <c r="G15">
-        <v>82.78375000000001</v>
+        <v>82.78</v>
       </c>
       <c r="H15">
         <v>62.94</v>
@@ -1720,7 +1720,7 @@
         <v>373.35</v>
       </c>
       <c r="G16">
-        <v>82.78375000000001</v>
+        <v>82.78</v>
       </c>
       <c r="H16">
         <v>55.16</v>
@@ -1750,7 +1750,7 @@
         <v>39.54</v>
       </c>
       <c r="Q16">
-        <v>16.58461538461538</v>
+        <v>16.58</v>
       </c>
       <c r="R16">
         <v>7.92</v>
@@ -1768,7 +1768,7 @@
         <v>429.04</v>
       </c>
       <c r="W16">
-        <v>5.914545454545455</v>
+        <v>5.91</v>
       </c>
       <c r="X16">
         <v>19.23</v>

--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Avance Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Avance Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -1,168 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>Balance Sheet of Avance Technologies(in Rs. Cr.)</t>
-  </si>
-  <si>
-    <t>Equity Share Capital</t>
-  </si>
-  <si>
-    <t>Total Share Capital</t>
-  </si>
-  <si>
-    <t>Reserves and Surplus</t>
-  </si>
-  <si>
-    <t>Total Reserves and Surplus</t>
-  </si>
-  <si>
-    <t>Total Shareholders Funds</t>
-  </si>
-  <si>
-    <t>Short Term Borrowings</t>
-  </si>
-  <si>
-    <t>Trade Payables</t>
-  </si>
-  <si>
-    <t>Other Current Liabilities</t>
-  </si>
-  <si>
-    <t>Short Term Provisions</t>
-  </si>
-  <si>
-    <t>Total Current Liabilities</t>
-  </si>
-  <si>
-    <t>Total Capital And Liabilities</t>
-  </si>
-  <si>
-    <t>Non-Current Investments</t>
-  </si>
-  <si>
-    <t>Other Non-Current Assets</t>
-  </si>
-  <si>
-    <t>Total Non-Current Assets</t>
-  </si>
-  <si>
-    <t>Current Investments</t>
-  </si>
-  <si>
-    <t>Inventories</t>
-  </si>
-  <si>
-    <t>Trade Receivables</t>
-  </si>
-  <si>
-    <t>Cash And Cash Equivalents</t>
-  </si>
-  <si>
-    <t>OtherCurrentAssets</t>
-  </si>
-  <si>
-    <t>Total Current Assets</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
-    <t>Contingent Liabilities</t>
-  </si>
-  <si>
-    <t>Bonus Equity Share Capital</t>
-  </si>
-  <si>
-    <t>Non-Current Investments Unquoted Book Value</t>
-  </si>
-  <si>
-    <t>Current Investments Unquoted Book Value</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -177,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -493,1294 +420,1382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Balance Sheet of Avance Technologies(in Rs. Cr.)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Equity Share Capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Share Capital</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reserves and Surplus</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Reserves and Surplus</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Shareholders Funds</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Short Term Borrowings</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Trade Payables</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Other Current Liabilities</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Short Term Provisions</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Total Current Liabilities</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital And Liabilities</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Non-Current Investments</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Other Non-Current Assets</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Total Non-Current Assets</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Current Investments</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Inventories</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Trade Receivables</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Cash And Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>OtherCurrentAssets</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Total Current Assets</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Contingent Liabilities</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Bonus Equity Share Capital</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Non-Current Investments Unquoted Book Value</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Current Investments Unquoted Book Value</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mar 10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>64.04000000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>64.04000000000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>100.38</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>100.38</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>164.42</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>1.67</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>27.35</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>5.18</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0.27</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>34.48</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>199.2</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>47.61</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>0.01</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>48.03</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>15.75</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>12.59</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>19.8</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>0.5</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>0.15</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>151.17</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>199.2</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>5.91</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>42.23</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>15.66</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mar 11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>64.04000000000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>64.04000000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>100.43</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>100.43</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>164.46</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.02</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>91.41</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>18.69</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>0.35</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>110.46</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>340.6</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>212.29</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>0.14</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>238.9</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>15.75</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>18.08</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>73.20999999999999</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>10.31</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>0.1</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>101.7</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>340.6</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>2.34</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>116.24</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>15.66</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar 12</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>64.04000000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>64.04000000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>99.29000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>99.29000000000001</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>191.23</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>68.54000000000001</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>37.72</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.31</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>115.19</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>505.72</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>105.39</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>112.96</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>285.66</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>63.98</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>17.75</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>136.71</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>1.45</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>0.16</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>220.06</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>505.72</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>5.91</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>77.22</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>48.79</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mar 13</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>64.04000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>64.04000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>126.74</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>126.74</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>190.78</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>8.77</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>128.48</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>44.63</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.14</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>182.03</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>572.1</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>166.83</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>112.96</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>450.42</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>15.22</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>18.13</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>87.69</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>0.48</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>0.14</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>121.67</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>572.1</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>2.23</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>166.83</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>15.22</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mar 14</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>64.04000000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>64.04000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>123.37</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>123.37</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>187.41</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>201.23</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>53.35</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>37.63</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.15</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>292.36</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>479.86</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>176.37</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>112.96</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>429.31</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>3.04</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>18.19</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>25.78</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>3.33</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>0.21</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>50.55</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>479.86</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>2.23</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>137.47</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>2.33</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>198.19</v>
-      </c>
-      <c r="C7">
-        <v>198.19</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mar 15</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="D7" t="n">
         <v>189.33</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>189.33</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>387.52</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>82.78</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>72.15000000000001</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>11.22</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>0.17</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>72.31</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>459.83</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>196.79</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>112.96</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>427.7</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>0.3</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>19.31</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>11.91</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>0.35</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>0.27</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>32.14</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>459.83</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>2.23</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>157.89</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>15.66</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>198.19</v>
-      </c>
-      <c r="C8">
-        <v>198.19</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mar 16</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="D8" t="n">
         <v>188.23</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>188.23</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>386.42</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>82.78</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>57.47</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>11.22</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>0.17</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>57.64</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>444.06</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>223.15</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>112.96</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>413.57</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>0.77</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>19.78</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>9.56</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>0.11</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>0.27</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>30.49</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>444.06</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>1.75</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>184.25</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>0.77</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>198.19</v>
-      </c>
-      <c r="C9">
-        <v>198.19</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mar 17</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="D9" t="n">
         <v>188.44</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>188.44</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>386.63</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>82.78</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>60.19</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>1.53</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>0.31</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>61.73</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>448.36</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>243.22</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>176.03</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>419.26</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>0.62</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>21.07</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>6.88</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>0.36</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>0.17</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>29.1</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>448.36</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>1.75</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>57.6</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>0.62</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
-        <v>198.19</v>
-      </c>
-      <c r="C10">
-        <v>198.19</v>
-      </c>
-      <c r="D10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mar 18</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="C10" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="D10" t="n">
         <v>188.56</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>188.56</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>386.75</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>150.04</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>61.45</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.24</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>0.31</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>211.73</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>598.49</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>243.57</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>172.68</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>416.26</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>0.62</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>20.35</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>11.03</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>0.05</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>150.18</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>182.23</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>598.49</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>1.75</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>243.57</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>0.62</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <v>198.19</v>
-      </c>
-      <c r="C11">
-        <v>198.19</v>
-      </c>
-      <c r="D11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mar 19</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="D11" t="n">
         <v>188.99</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>188.99</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>387.18</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>145.96</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>38.85</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.06</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>0.37</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>185.24</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>572.42</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>287.63</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>114.92</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>402.56</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>0.62</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>19.99</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>3.59</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>0.03</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>145.62</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>169.86</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>572.42</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>1.75</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>287.63</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
-        <v>198.19</v>
-      </c>
-      <c r="C12">
-        <v>198.19</v>
-      </c>
-      <c r="D12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mar 20</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="D12" t="n">
         <v>99.03</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>99.03</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>297.22</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>145.96</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>30.96</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>0.37</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>177.35</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>474.57</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>204.52</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>101.15</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>305.67</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>0.18</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>19.99</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>3.05</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>0.06</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>145.62</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>168.9</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>474.57</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>1.75</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="n">
         <v>204.52</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" t="n">
         <v>0.18</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
-        <v>198.19</v>
-      </c>
-      <c r="C13">
-        <v>198.19</v>
-      </c>
-      <c r="D13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mar 21</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="D13" t="n">
         <v>71.45999999999999</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>71.45999999999999</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>269.66</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>82.78</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>30.2</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>0.37</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>30.63</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>300.28</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>201.66</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>97.48</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>299.15</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>0.79</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>16.58</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>28.62</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>0.26</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>0.09</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>1.14</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>300.28</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>1.75</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" t="n">
         <v>202.97</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" t="n">
         <v>0.18</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14">
-        <v>198.19</v>
-      </c>
-      <c r="C14">
-        <v>198.19</v>
-      </c>
-      <c r="D14">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mar 22</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="D14" t="n">
         <v>172.67</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>172.67</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>370.86</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>82.78</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>55.69</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>0.05</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>0.37</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>56.11</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>426.97</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>243.97</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>137.12</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>381.09</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>39.54</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>3.78</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>2.4</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>0.04</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>0.11</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>45.88</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>426.97</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>5.91</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" t="n">
         <v>165.5</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="n">
         <v>39.54</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15">
-        <v>198.19</v>
-      </c>
-      <c r="C15">
-        <v>198.19</v>
-      </c>
-      <c r="D15">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mar 23</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="D15" t="n">
         <v>173.08</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>173.08</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>371.27</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>82.78</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>62.94</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>0.03</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>0.46</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>63.43</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>434.7</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>236.62</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>150.62</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>387.25</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>39.54</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>6.59</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>1.15</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>0.06</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>0.11</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>47.45</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>434.7</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>45.53</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="n">
         <v>236.62</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" t="n">
         <v>39.54</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>198.19</v>
-      </c>
-      <c r="C16">
-        <v>198.19</v>
-      </c>
-      <c r="D16">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mar 24</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="C16" t="n">
+        <v>198.19</v>
+      </c>
+      <c r="D16" t="n">
         <v>175.16</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>175.16</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>373.35</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>82.78</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>55.16</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0.02</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>0.52</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>55.69</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>429.04</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>201.98</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>179.4</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>381.39</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>39.54</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>16.58</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>7.92</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>0.11</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>47.66</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>429.04</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>5.91</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>19.23</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="n">
         <v>201.98</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" t="n">
         <v>39.54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>